--- a/scripts/2krFactorialAnalysis/2krFactorialAnalysis.xlsx
+++ b/scripts/2krFactorialAnalysis/2krFactorialAnalysis.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="k uniform end-to-end delay" sheetId="1" r:id="rId1"/>
-    <sheet name="k uniform mean packets in queue" sheetId="4" r:id="rId2"/>
-    <sheet name="k exponential End-to-end delay" sheetId="2" r:id="rId3"/>
-    <sheet name="k exponential - mean pkt queue" sheetId="5" r:id="rId4"/>
+    <sheet name="k uniform end-to-end delay" sheetId="6" r:id="rId1"/>
+    <sheet name="k uniform end-to-end delay (ln)" sheetId="1" r:id="rId2"/>
+    <sheet name="k uniform mean packets in queue" sheetId="4" r:id="rId3"/>
+    <sheet name="k exponential End-to-end delay" sheetId="2" r:id="rId4"/>
+    <sheet name="k exponential - mean pkt queue" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="80">
   <si>
     <t>t [s]</t>
   </si>
@@ -625,7 +626,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F15C-42E4-AD9C-95A9B463B9F8}"/>
+              <c16:uniqueId val="{00000000-5EAB-4D3A-8E46-AEC7A7AAA20B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -809,6 +810,407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exponential - mean pkt queue'!$C$51:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>119.70823764810764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.70823764810764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.70823764810764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.70823764810764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.70823764810764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0075444252795451E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0075444252795451E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0075444252795451E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0075444252795451E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0075444252795451E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2088.4535426848647</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2088.4535426848647</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2088.4535426848647</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2088.4535426848647</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2088.4535426848647</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9215219497050688E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9215219497050688E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9215219497050688E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9215219497050688E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9215219497050688E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exponential - mean pkt queue'!$D$51:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.6718148610087979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.5517439460226541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7873336909578939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5499375103648418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8826747343931487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4702664434263491E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4425545089584661E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0151175122632824E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6743799325014504E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6869743547060292E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>958.98912876173563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-705.11361529538476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>329.71441546614733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-525.43342438742866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-58.156504545069311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.2992228446297933E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.953092312517283E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.7281374051549455E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.7371744289339424E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1405863350979978E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5DF-4A39-A476-FA221CD36809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="790592128"/>
+        <c:axId val="790581728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="790592128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790581728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790581728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790592128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -824,7 +1226,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1036,7 +1437,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9DC-46D2-B4B9-29A149C3796E}"/>
+              <c16:uniqueId val="{00000000-3BF0-4482-A2DE-27CA3F47ECCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1235,7 +1636,902 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>QQ plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k uniform end-to-end delay (ln)'!$E$28:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-1.9599639845400538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4395314709384572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1503493803760083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.93458929107347943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.75541502636046909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59776012604247841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.45376219016987951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3186393639643752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18911842627279254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.2706777943213846E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2706777943213846E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18911842627279243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3186393639643752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45376219016987968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59776012604247841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75541502636046909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9345892910734801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1503493803760083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4395314709384563</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9599639845400536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k uniform end-to-end delay (ln)'!$F$28:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.21775737534440776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10810983514069417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.8092410417048406E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.5764673021695863E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6328276087339582E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0071322585042193E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1957287196995523E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.0566993828188309E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5517624292671357E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.6234296481524311E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.252337705866303E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.9518935729663269E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7630609393570751E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2612232058593094E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0392769696624455E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5020725134652402E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6236020863178489E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8465880806049206E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3698390888030207E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43591690809914674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F15C-42E4-AD9C-95A9B463B9F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="774626575"/>
+        <c:axId val="774620335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="774626575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774620335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774620335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774626575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5358705161854783E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.87119685039370076"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k uniform end-to-end delay (ln)'!$C$51:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.4430137264364808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4430137264364808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4430137264364808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4430137264364808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4430137264364808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2251325227252443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2251325227252443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.2251325227252443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2251325227252443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2251325227252443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2969675460243604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2969675460243604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2969675460243604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2969675460243604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2969675460243604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.1251835275309046</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1251835275309046</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.1251835275309046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1251835275309046</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.1251835275309046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k uniform end-to-end delay (ln)'!$D$51:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.3698390888030207E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.5764673021695863E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0071322585042193E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8465880806049206E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6328276087339582E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5517624292671357E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.252337705866303E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6236020863178489E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6234296481524311E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0392769696624455E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.21775737534440776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43591690809914674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.10810983514069417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.1957287196995523E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.8092410417048406E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2612232058593094E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7630609393570751E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5020725134652402E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.9518935729663269E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.0566993828188309E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9DC-46D2-B4B9-29A149C3796E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689617375"/>
+        <c:axId val="689607391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689617375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689607391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="689607391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689617375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1621,7 +2917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1636,7 +2932,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2022,7 +3317,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2062,7 +3357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2448,7 +3742,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2463,7 +3757,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2849,7 +4142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2889,7 +4182,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3275,408 +4567,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'k exponential - mean pkt queue'!$C$51:$C$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>119.70823764810764</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>119.70823764810764</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>119.70823764810764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119.70823764810764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>119.70823764810764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0075444252795451E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0075444252795451E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0075444252795451E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0075444252795451E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0075444252795451E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2088.4535426848647</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2088.4535426848647</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2088.4535426848647</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2088.4535426848647</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2088.4535426848647</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.9215219497050688E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9215219497050688E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9215219497050688E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.9215219497050688E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9215219497050688E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'k exponential - mean pkt queue'!$D$51:$D$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>8.6718148610087979</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.5517439460226541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.7873336909578939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5499375103648418</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.8826747343931487</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.4702664434263491E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4425545089584661E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0151175122632824E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.6743799325014504E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6869743547060292E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>958.98912876173563</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-705.11361529538476</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>329.71441546614733</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-525.43342438742866</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-58.156504545069311</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.2992228446297933E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.953092312517283E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-5.7281374051549455E-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.7371744289339424E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1405863350979978E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5DF-4A39-A476-FA221CD36809}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="790592128"/>
-        <c:axId val="790581728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="790592128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790581728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="790581728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790592128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3996,6 +4927,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4512,7 +5483,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5028,7 +5999,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5544,7 +6515,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6060,7 +7031,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6576,7 +7547,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7092,7 +8063,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7608,7 +8579,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8124,7 +9095,1108 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561295</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313645</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8189,7 +10261,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8254,7 +10326,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8319,7 +10391,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8649,7 +10721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
@@ -9826,6 +11898,1292 @@
       </c>
       <c r="D70">
         <v>-7.2200000000000042E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="M7:Q7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12.3878</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160.647122</v>
+      </c>
+      <c r="D5" s="1">
+        <v>308.85887400000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>179.263665</v>
+      </c>
+      <c r="F5" s="1">
+        <v>195.392481</v>
+      </c>
+      <c r="G5" s="1">
+        <v>182.88821799999999</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>12.3878</v>
+      </c>
+      <c r="Y6">
+        <v>10.775219999999999</v>
+      </c>
+      <c r="Z6">
+        <v>11.16677</v>
+      </c>
+      <c r="AA6">
+        <v>12.32315</v>
+      </c>
+      <c r="AB6">
+        <v>10.986700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="X7">
+        <v>0.10767</v>
+      </c>
+      <c r="Y7">
+        <v>0.10781</v>
+      </c>
+      <c r="Z7">
+        <v>0.10888</v>
+      </c>
+      <c r="AA7">
+        <v>0.10777</v>
+      </c>
+      <c r="AB7">
+        <v>0.10814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8">
+        <v>160.647122</v>
+      </c>
+      <c r="Y8">
+        <v>308.85887400000001</v>
+      </c>
+      <c r="Z8">
+        <v>179.263665</v>
+      </c>
+      <c r="AA8">
+        <v>195.392481</v>
+      </c>
+      <c r="AB8">
+        <v>182.88821799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*E9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f>LN(X6)</f>
+        <v>2.5167121173245111</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:K12" si="0">LN(Y6)</f>
+        <v>2.377249053414785</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4129424038514387</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5114796072425301</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3966854503491413</v>
+      </c>
+      <c r="L9" s="5">
+        <f>SUM(G9:K9)/5</f>
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="M9" s="1">
+        <f>G9-$L9</f>
+        <v>7.3698390888030207E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f>H9-$L9</f>
+        <v>-6.5764673021695863E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:Q12" si="1">I9-$L9</f>
+        <v>-3.0071322585042193E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8465880806049206E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.6328276087339582E-2</v>
+      </c>
+      <c r="X9">
+        <v>0.11945</v>
+      </c>
+      <c r="Y9">
+        <v>0.11939</v>
+      </c>
+      <c r="Z9">
+        <v>0.12019000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.11934</v>
+      </c>
+      <c r="AB9">
+        <v>0.11869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10:F12" si="2">D10*E10</f>
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G12" si="3">LN(X7)</f>
+        <v>-2.2286842851545114</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2273848604311106</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2175089206389265</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2277559523733967</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2243285950282781</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ref="L10:L12" si="4">SUM(G10:K10)/5</f>
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="M10" s="1">
+        <f>G10-$L10</f>
+        <v>-3.5517624292671357E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ref="N10:N12" si="5">H10-$L10</f>
+        <v>-2.252337705866303E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6236020863178489E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.6234296481524311E-3</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0392769696624455E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0792101706799526</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7328844541235071</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1888577108836662</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2750102588273649</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.208875135607312</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M12" si="6">G11-$L11</f>
+        <v>-0.21775737534440776</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43591690809914674</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.10810983514069417</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.1957287196995523E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.8092410417048406E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.1248574052103186</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1253598336248403</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1186814550174393</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1257787168882012</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1312402269137234</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2612232058593094E-4</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.7630609393570751E-4</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5020725134652402E-3</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.9518935729663269E-4</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.0566993828188309E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>C9*$L9</f>
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="D13">
+        <f>D9*$L9</f>
+        <v>-2.4430137264364808</v>
+      </c>
+      <c r="E13">
+        <f>E9*$L9</f>
+        <v>-2.4430137264364808</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="7">F9*$L9</f>
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="M13" s="6">
+        <f>SUM(M9:M12)</f>
+        <v>-0.14728462456505875</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" ref="N13:Q13" si="8">SUM(N9:N12)</f>
+        <v>0.36772359127764886</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.12405548312595327</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="8"/>
+        <v>4.328997460360462E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.13967345819024057</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f>C10*$L10</f>
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:F16" si="9">D10*$L10</f>
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="9"/>
+        <v>2.2251325227252443</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>2.2251325227252443</v>
+      </c>
+      <c r="M14" s="6">
+        <f>M13/4</f>
+        <v>-3.6821156141264688E-2</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" ref="N14:Q14" si="10">N13/4</f>
+        <v>9.1930897819412216E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="10"/>
+        <v>-3.1013870781488317E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0822493650901155E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="10"/>
+        <v>-3.4918364547560143E-2</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" ref="C15:C16" si="11">C11*$L11</f>
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="9"/>
+        <v>-5.2969675460243604</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="9"/>
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="F15">
+        <f>F11*$L11</f>
+        <v>-5.2969675460243604</v>
+      </c>
+      <c r="M15" s="1">
+        <f>M9^2+M10^2+M11^2+M12^2</f>
+        <v>5.2862448708492112E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" ref="N15:Q15" si="12">N9^2+N10^2+N11^2+N12^2</f>
+        <v>0.19435364709335054</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="12"/>
+        <v>1.269241715190261E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="12"/>
+        <v>5.1769359290893251E-3</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="12"/>
+        <v>9.9439118454662453E-3</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="11"/>
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>-2.1251835275309046</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C13:C16)</f>
+        <v>3.3896652222046924</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:E17" si="13">SUM(D13:D16)</f>
+        <v>-12.090297322716989</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="13"/>
+        <v>2.9539028147822193</v>
+      </c>
+      <c r="F17" s="1">
+        <f>SUM(F13:F16)</f>
+        <v>-2.7540048243935398</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C17/4</f>
+        <v>0.84741630555117309</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:F18" si="14">D17/4</f>
+        <v>-3.0225743306792472</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.73847570369555482</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.68850120609838494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1">
+        <f>4*5*D18^2</f>
+        <v>182.71911168962197</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20" si="15">4*5*E18^2</f>
+        <v>10.906927298972898</v>
+      </c>
+      <c r="F20" s="1">
+        <f>4*5*F18^2</f>
+        <v>9.4806782159786156</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1">
+        <f>SUM(M15:Q15)</f>
+        <v>0.27502936072830075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(D20:F20)+I20</f>
+        <v>203.3817465653018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8">
+        <f>D20/$C21</f>
+        <v>0.89840467384792833</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:F22" si="16">E20/$C21</f>
+        <v>5.3627857382328566E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="16"/>
+        <v>4.6615187331644631E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f>I20/$C21</f>
+        <v>1.3522814380984498E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>(C28-0.5)/$C$47</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.NORM.S.INV(D28)</f>
+        <v>-1.9599639845400538</v>
+      </c>
+      <c r="F28">
+        <v>-0.21775737534440776</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>C28+1</f>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D47" si="17">(C29-0.5)/$C$47</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E47" si="18">_xlfn.NORM.S.INV(D29)</f>
+        <v>-1.4395314709384572</v>
+      </c>
+      <c r="F29">
+        <v>-0.10810983514069417</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <f t="shared" ref="C30:C47" si="19">C29+1</f>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="18"/>
+        <v>-1.1503493803760083</v>
+      </c>
+      <c r="F30">
+        <v>-8.8092410417048406E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="17"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="18"/>
+        <v>-0.93458929107347943</v>
+      </c>
+      <c r="F31">
+        <v>-6.5764673021695863E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="17"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="18"/>
+        <v>-0.75541502636046909</v>
+      </c>
+      <c r="F32">
+        <v>-4.6328276087339582E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="17"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="18"/>
+        <v>-0.59776012604247841</v>
+      </c>
+      <c r="F33">
+        <v>-3.0071322585042193E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="17"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="18"/>
+        <v>-0.45376219016987951</v>
+      </c>
+      <c r="F34">
+        <v>-2.1957287196995523E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="17"/>
+        <v>0.375</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="18"/>
+        <v>-0.3186393639643752</v>
+      </c>
+      <c r="F35">
+        <v>-6.0566993828188309E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="17"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="18"/>
+        <v>-0.18911842627279254</v>
+      </c>
+      <c r="F36">
+        <v>-3.5517624292671357E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="17"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="18"/>
+        <v>-6.2706777943213846E-2</v>
+      </c>
+      <c r="F37">
+        <v>-2.6234296481524311E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="18"/>
+        <v>6.2706777943213846E-2</v>
+      </c>
+      <c r="F38">
+        <v>-2.252337705866303E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="17"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="18"/>
+        <v>0.18911842627279243</v>
+      </c>
+      <c r="F39">
+        <v>-5.9518935729663269E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>0.625</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="18"/>
+        <v>0.3186393639643752</v>
+      </c>
+      <c r="F40">
+        <v>-1.7630609393570751E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="17"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0.45376219016987968</v>
+      </c>
+      <c r="F41">
+        <v>3.2612232058593094E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="17"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="18"/>
+        <v>0.59776012604247841</v>
+      </c>
+      <c r="F42">
+        <v>8.0392769696624455E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="17"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="18"/>
+        <v>0.75541502636046909</v>
+      </c>
+      <c r="F43">
+        <v>6.5020725134652402E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="17"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="18"/>
+        <v>0.9345892910734801</v>
+      </c>
+      <c r="F44">
+        <v>7.6236020863178489E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="18"/>
+        <v>1.1503493803760083</v>
+      </c>
+      <c r="F45">
+        <v>6.8465880806049206E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="17"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="18"/>
+        <v>1.4395314709384563</v>
+      </c>
+      <c r="F46">
+        <v>7.3698390888030207E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="17"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="18"/>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="F47">
+        <v>0.43591690809914674</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51" s="9">
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="D51" s="9">
+        <v>7.3698390888030207E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="9">
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="D52" s="9">
+        <v>-6.5764673021695863E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="9">
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="D53" s="9">
+        <v>-3.0071322585042193E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="9">
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="D54" s="9">
+        <v>6.8465880806049206E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="9">
+        <v>2.4430137264364808</v>
+      </c>
+      <c r="D55" s="9">
+        <v>-4.6328276087339582E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="9">
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="D56" s="9">
+        <v>-3.5517624292671357E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="9">
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="D57" s="9">
+        <v>-2.252337705866303E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="9">
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="D58" s="9">
+        <v>7.6236020863178489E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="9">
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="D59" s="9">
+        <v>-2.6234296481524311E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60" s="9">
+        <v>-2.2251325227252443</v>
+      </c>
+      <c r="D60" s="9">
+        <v>8.0392769696624455E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61" s="9">
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="D61" s="9">
+        <v>-0.21775737534440776</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62" s="9">
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.43591690809914674</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63" s="9">
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="D63" s="9">
+        <v>-0.10810983514069417</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C64" s="9">
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="D64" s="9">
+        <v>-2.1957287196995523E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="9">
+        <v>5.2969675460243604</v>
+      </c>
+      <c r="D65" s="9">
+        <v>-8.8092410417048406E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="9">
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3.2612232058593094E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="9">
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="D67" s="9">
+        <v>-1.7630609393570751E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="9">
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="D68" s="9">
+        <v>6.5020725134652402E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="9">
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="D69" s="9">
+        <v>-5.9518935729663269E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="9">
+        <v>-2.1251835275309046</v>
+      </c>
+      <c r="D70" s="9">
+        <v>-6.0566993828188309E-3</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
@@ -9847,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
@@ -11048,7 +14406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
@@ -12248,11 +15606,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
